--- a/1_planning/GatePlanArchitect.xlsx
+++ b/1_planning/GatePlanArchitect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="6915"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="6795"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -456,7 +456,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
